--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.090599999999997</v>
+        <v>9.079599999999994</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>5.863400000000001</v>
+        <v>6.138900000000003</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.5952</v>
+        <v>5.585200000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.440900000000002</v>
+        <v>-7.390899999999998</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.233299999999998</v>
+        <v>-7.213400000000002</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.8181</v>
+        <v>16.7914</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.14120000000001</v>
+        <v>17.17700000000001</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.661099999999998</v>
+        <v>-8.944099999999992</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.131199999999998</v>
+        <v>5.0413</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.041</v>
+        <v>16.0665</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.52360000000001</v>
+        <v>16.55880000000001</v>
       </c>
     </row>
     <row r="20">
@@ -771,13 +771,13 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.420399999999995</v>
+        <v>9.314299999999994</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.076099999999995</v>
+        <v>-7.918799999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.045899999999996</v>
+        <v>-8.0871</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,10 +811,10 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.666900000000005</v>
+        <v>-7.5703</v>
       </c>
       <c r="E22" t="n">
-        <v>16.30860000000001</v>
+        <v>16.43000000000001</v>
       </c>
     </row>
     <row r="23">
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.183599999999998</v>
+        <v>-7.127399999999995</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.820000000000002</v>
+        <v>5.977100000000003</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,13 +924,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.368200000000003</v>
+        <v>5.245000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.237699999999997</v>
+        <v>-7.229699999999995</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.029799999999997</v>
+        <v>7.291799999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.847899999999999</v>
+        <v>-7.789299999999998</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.7618</v>
+        <v>15.7739</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.106799999999996</v>
+        <v>9.183199999999998</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.928199999999999</v>
+        <v>-7.826000000000004</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.3551</v>
+        <v>-8.3148</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.993799999999996</v>
+        <v>-8.131099999999998</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.739400000000001</v>
+        <v>-7.841599999999997</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,16 +1213,16 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.840800000000005</v>
+        <v>6.349400000000004</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.345499999999999</v>
+        <v>-8.411499999999998</v>
       </c>
       <c r="E46" t="n">
-        <v>16.6492</v>
+        <v>16.67710000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.699500000000004</v>
+        <v>-8.262699999999997</v>
       </c>
       <c r="E50" t="n">
-        <v>16.5153</v>
+        <v>16.8129</v>
       </c>
     </row>
     <row r="51">
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.489899999999997</v>
+        <v>5.122600000000001</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.466499999999995</v>
+        <v>-7.466899999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.133699999999999</v>
+        <v>5.014500000000002</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.8291</v>
+        <v>5.852399999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.188800000000002</v>
+        <v>5.210299999999998</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.701199999999996</v>
+        <v>5.596299999999998</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1553,13 +1553,13 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.671799999999998</v>
+        <v>5.226199999999999</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.532100000000001</v>
+        <v>-7.533200000000001</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.464900000000001</v>
+        <v>-6.631100000000003</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>8.571800000000001</v>
+        <v>8.464699999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.26419999999999</v>
+        <v>9.308399999999988</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.326800000000003</v>
+        <v>-6.228400000000005</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.973200000000007</v>
+        <v>-9.091300000000002</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>4.689599999999996</v>
+        <v>4.881099999999996</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.416299999999999</v>
+        <v>-6.592899999999997</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.86220000000002</v>
+        <v>17.96600000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.706200000000001</v>
+        <v>-8.569899999999997</v>
       </c>
       <c r="E97" t="n">
-        <v>16.18209999999999</v>
+        <v>16.65879999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.1959</v>
+        <v>5.203799999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
